--- a/浙江社区填报/社区下发报表.xlsx
+++ b/浙江社区填报/社区下发报表.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\work-doc\浙江社区填报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E295C70B-7FD9-4115-983D-46BB5CA8AC2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFC4C4C-8601-4D47-B96F-23127E6AE7D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="21">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +69,46 @@
   </si>
   <si>
     <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半年报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县级及以上医疗机构35岁及以上首诊病人测血压工作情况汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高血压区县管理工作质控情况汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病区县管理工作质控情况汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高血压市级管理工作质控情况汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病市级管理工作质控情况汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +142,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -146,6 +211,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -540,4 +623,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F6D6DD-2AD2-4F21-A0DF-28B307F5A853}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="63.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
+        <v>32</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13">
+        <v>45</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>